--- a/test/exp2.xlsx
+++ b/test/exp2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhiraj Das\Documents\DMSBackend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82C3C8A5-C0BF-4AEC-8F93-6FA66F37E016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659B462A-E4AD-4019-87B0-C049BAF246AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>branch</t>
   </si>
@@ -127,106 +127,43 @@
     <t>gst_rate2</t>
   </si>
   <si>
-    <t>Connaught Place</t>
-  </si>
-  <si>
     <t>9876543210</t>
   </si>
   <si>
-    <t>8765432109</t>
-  </si>
-  <si>
-    <t>55 Connaught Place, New Delhi</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>INV001</t>
   </si>
   <si>
-    <t>INV002</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>GST234567</t>
-  </si>
-  <si>
     <t>PAN1234567</t>
   </si>
   <si>
-    <t>PAN2345678</t>
-  </si>
-  <si>
-    <t>456 Avenue, Town</t>
-  </si>
-  <si>
     <t>john@example.com</t>
   </si>
   <si>
-    <t>jane@example.com</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
     <t>Dell Inspiron</t>
   </si>
   <si>
-    <t>HP LaserJet</t>
-  </si>
-  <si>
     <t>8471</t>
   </si>
   <si>
-    <t>8473</t>
-  </si>
-  <si>
     <t>50000</t>
   </si>
   <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
     <t>B2B</t>
   </si>
   <si>
     <t>TDS</t>
   </si>
   <si>
-    <t>Toner</t>
-  </si>
-  <si>
     <t>Wireless Mouse</t>
   </si>
   <si>
-    <t>HP Black Toner</t>
-  </si>
-  <si>
     <t>8472</t>
   </si>
   <si>
-    <t>8474</t>
-  </si>
-  <si>
     <t>1500</t>
-  </si>
-  <si>
-    <t>Nil Rated</t>
   </si>
   <si>
     <t>mumbai</t>
@@ -634,7 +571,7 @@
   <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
@@ -756,52 +693,52 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>11111111111</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2">
         <v>43961</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2">
         <v>37387</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -813,166 +750,60 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Y2">
         <v>1200</v>
       </c>
       <c r="Z2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AA2">
         <v>18</v>
       </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AC2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AD2">
         <v>6</v>
       </c>
       <c r="AE2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="AF2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="AG2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AH2">
         <v>1500</v>
       </c>
       <c r="AI2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="AJ2">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2">
-        <v>44752</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2">
-        <v>37388</v>
-      </c>
-      <c r="K3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3">
-        <v>1234</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3">
-        <v>18</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3">
-        <v>5</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH3">
-        <v>800</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ3">
-        <v>18</v>
-      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="H4" s="2"/>
